--- a/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,44</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,47</t>
+          <t>-4,14; 4,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,68</t>
+          <t>3,42; 10,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,21</t>
+          <t>1,6; 7,23</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 21,36</t>
+          <t>-14,38; 17,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 37,54</t>
+          <t>9,71; 34,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 28,66</t>
+          <t>5,19; 24,81</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,42</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,74</t>
+          <t>-3,94; 4,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 17,64</t>
+          <t>-0,76; 26,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 11,85</t>
+          <t>-0,32; 16,67</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>23,76%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 44,4</t>
+          <t>-24,49; 30,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 75,87</t>
+          <t>-3,37; 114,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 61,83</t>
+          <t>-2,04; 90,47</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,56</t>
+          <t>-0,42; 9,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 6,39</t>
+          <t>-3,04; 6,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,88</t>
+          <t>0,08; 7,15</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,87%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 63,94</t>
+          <t>-2,8; 70,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 33,9</t>
+          <t>-12,59; 33,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 40,69</t>
+          <t>-0,62; 43,45</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,16</t>
+          <t>-4,46; 1,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,77</t>
+          <t>-0,38; 18,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,35</t>
+          <t>-0,93; 11,92</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 17,83</t>
+          <t>-23,8; 10,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 40,39</t>
+          <t>-1,43; 68,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,32; 32,49</t>
+          <t>-4,02; 51,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,06</t>
+          <t>-1,15; 6,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,97</t>
+          <t>-5,24; 3,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,61</t>
+          <t>-4,0; 5,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,09</t>
+          <t>3,55; 11,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 9,97</t>
+          <t>1,41; 9,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 10,67</t>
+          <t>2,96; 10,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 8,12</t>
+          <t>2,57; 8,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,31</t>
+          <t>-0,01; 5,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,23</t>
+          <t>1,49; 7,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 27,97</t>
+          <t>-4,26; 26,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 11,62</t>
+          <t>-18,33; 12,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 17,83</t>
+          <t>-13,95; 20,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 36,17</t>
+          <t>10,78; 36,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 31,59</t>
+          <t>3,98; 31,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 34,67</t>
+          <t>8,56; 34,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 27,87</t>
+          <t>8,12; 28,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 21,97</t>
+          <t>0,27; 20,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 24,81</t>
+          <t>4,55; 25,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,79</t>
+          <t>3,7; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,86</t>
+          <t>0,26; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,18</t>
+          <t>-4,09; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,17</t>
+          <t>4,15; 10,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,48</t>
+          <t>-3,0; 2,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 26,27</t>
+          <t>-0,66; 26,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,93</t>
+          <t>4,4; 8,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,05</t>
+          <t>-0,81; 3,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 16,67</t>
+          <t>-0,42; 17,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 66,28</t>
+          <t>23,38; 68,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 36,55</t>
+          <t>1,67; 39,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 30,41</t>
+          <t>-25,18; 32,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 48,69</t>
+          <t>16,98; 48,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 11,88</t>
+          <t>-12,42; 12,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 114,32</t>
+          <t>-2,89; 120,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,82; 50,62</t>
+          <t>22,0; 48,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 17,09</t>
+          <t>-4,12; 18,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 90,47</t>
+          <t>-2,51; 94,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,31</t>
+          <t>-6,97; 1,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,77</t>
+          <t>-4,3; 4,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,51</t>
+          <t>-0,62; 9,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,4</t>
+          <t>-6,89; 4,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,22</t>
+          <t>-7,65; 3,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 6,28</t>
+          <t>-2,7; 6,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,77</t>
+          <t>-5,5; 1,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 2,65</t>
+          <t>-4,0; 2,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,15</t>
+          <t>-0,25; 6,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 17,25</t>
+          <t>-39,51; 15,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 35,67</t>
+          <t>-24,97; 34,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 70,9</t>
+          <t>-4,05; 68,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 23,26</t>
+          <t>-28,31; 21,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 17,05</t>
+          <t>-30,29; 17,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 33,32</t>
+          <t>-10,8; 35,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 10,82</t>
+          <t>-27,24; 11,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 15,75</t>
+          <t>-20,59; 16,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 43,45</t>
+          <t>-1,15; 39,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,65</t>
+          <t>1,49; 5,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,15</t>
+          <t>-1,8; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,96</t>
+          <t>-4,45; 2,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,08</t>
+          <t>3,79; 8,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,51</t>
+          <t>-1,83; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 18,25</t>
+          <t>-0,61; 19,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,39</t>
+          <t>3,43; 6,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,54</t>
+          <t>-1,23; 1,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 11,92</t>
+          <t>-0,69; 9,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,65; 31,87</t>
+          <t>7,41; 32,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 12,19</t>
+          <t>-9,07; 12,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 10,9</t>
+          <t>-23,17; 11,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,77; 31,9</t>
+          <t>13,77; 32,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 10,06</t>
+          <t>-6,58; 9,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 68,86</t>
+          <t>-2,25; 75,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,33; 29,21</t>
+          <t>14,72; 30,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 6,93</t>
+          <t>-5,3; 8,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 51,85</t>
+          <t>-3,06; 42,37</t>
         </is>
       </c>
     </row>
